--- a/rbac/AKS_RBAC_Model_CaaS.xlsx
+++ b/rbac/AKS_RBAC_Model_CaaS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andre/repos/personal/CaaS-Docs/rbac/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56D9041-85CD-954B-804F-774AE008D5A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D0D043-FC23-3142-82FB-2064F32687E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20" yWindow="740" windowWidth="29400" windowHeight="16840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -899,8 +899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84626FCF-1502-3442-9C7C-1204D8924625}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B8"/>
+    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
